--- a/backend/db/QBGDigitalGuide_data.xlsx
+++ b/backend/db/QBGDigitalGuide_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\tour\backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D825A8-E02A-4C01-8B08-71BDA39DE376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0637F-1452-4D41-99B7-84F5394B9367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3322" yWindow="2395" windowWidth="20531" windowHeight="10451" activeTab="4" xr2:uid="{09D21884-479E-467C-BD18-06F6FCF93B5C}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" activeTab="3" xr2:uid="{09D21884-479E-467C-BD18-06F6FCF93B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="months" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="606">
   <si>
     <t>month_name</t>
   </si>
@@ -1916,6 +1916,9 @@
   </si>
   <si>
     <t>Dwarf fothergilla</t>
+  </si>
+  <si>
+    <t>Red-twig dogwood</t>
   </si>
 </sst>
 </file>
@@ -3413,8 +3416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149911F9-1C5B-4A9D-B3D9-53540215E4F5}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3450,7 @@
         <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
         <v>356</v>
@@ -5060,8 +5063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94678A22-C145-4396-A3C0-A781D27713A2}">
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/backend/db/QBGDigitalGuide_data.xlsx
+++ b/backend/db/QBGDigitalGuide_data.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\tour\backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0637F-1452-4D41-99B7-84F5394B9367}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2063BA-06EC-4C6F-AA16-E8C8819EB219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" activeTab="3" xr2:uid="{09D21884-479E-467C-BD18-06F6FCF93B5C}"/>
+    <workbookView xWindow="27260" yWindow="-114" windowWidth="27603" windowHeight="15027" activeTab="1" xr2:uid="{09D21884-479E-467C-BD18-06F6FCF93B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="months" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="2" r:id="rId2"/>
-    <sheet name="birds" sheetId="3" r:id="rId3"/>
-    <sheet name="plants" sheetId="4" r:id="rId4"/>
-    <sheet name="plantsByMonths" sheetId="5" r:id="rId5"/>
-    <sheet name="plantsByLocations" sheetId="6" r:id="rId6"/>
+    <sheet name="locationMedia" sheetId="7" r:id="rId3"/>
+    <sheet name="birds" sheetId="3" r:id="rId4"/>
+    <sheet name="plants" sheetId="4" r:id="rId5"/>
+    <sheet name="plantsByMonths" sheetId="5" r:id="rId6"/>
+    <sheet name="plantsByLocations" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">locations!$A$1:$D$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">plants!$A$1:$D$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">plants!$A$1:$D$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="658">
   <si>
     <t>month_name</t>
   </si>
@@ -198,9 +199,6 @@
     <t>Woodland</t>
   </si>
   <si>
-    <t>Children Garden</t>
-  </si>
-  <si>
     <t>desc</t>
   </si>
   <si>
@@ -213,15 +211,9 @@
     <t>Spot beautiful full-grown trees such as Fragrant Winter hazel (Corylopsis glabrescens), Weeping Honeylocust (Gleditsia triacanthos var. inermis 'Bujotii'), Southern Magnolia (Magnolia grandiflora), and more at the Arboretum!</t>
   </si>
   <si>
-    <t>Attractive, small-scale gardening and landscaping solutions for Queens backyards, originally designed and planted by member nurseries of the Long Island Nurserymen’s Association, Inc. in the 1980s. Pergola, Seaside, Fountain, Patio, and Rock Gardens are the original settings that have been modified since its inception.</t>
-  </si>
-  <si>
     <t>Planted depressions that collect storm water that runs off surrounding areas. The plant species in bioswales are selected for their ability to tolerate both wet and dry conditions. Rainwater that falls on or flows into a bioswale is retained in the soil (a special soil mixture is used to maximize retention), evaporated, absorbed by plants, and allowed to infiltrate back into the water table.</t>
   </si>
   <si>
-    <t>A central component of QBG's landscape design, the Cherry Circle and Four Seasons border are striking gardens in all seasons. Cherry trees line a curved walkway and erupt in blooms each spring.  Several trees have been adopted in honor or memory of a loved one, making this space even more special.</t>
-  </si>
-  <si>
     <t>Children from all around New York City come to enjoy seasonal, hands-on learning and gardening experiences year-round.</t>
   </si>
   <si>
@@ -235,9 +227,6 @@
   </si>
   <si>
     <t>Helen and Martin Kaltman Fragrance Walk</t>
-  </si>
-  <si>
-    <t>A collection of shrubs, perennials, and bulbs that are especially fragrant during the growing season. Essential oils found in flowers, leaves, seeds, bark, and roots give these plants their strong scent.  Generous support for the maintenance of the Fragrance Walk is provided by The Kaltman Family Foundation.</t>
   </si>
   <si>
     <t>A semi-intensive, 8000-square-foot green roof with six inches of growing medium, planted with mostly native species that require minimal artificial watering and provide much-needed habitat for humans, birds, and insects. At the base of the Green Roof is a collection of native woodland plants featuring ferns, shrubs, sedges, and wildflowers, among others.</t>
@@ -266,9 +255,6 @@
     <t>A collection of plants and trees that attract bees or flavor honey. The beehives house Apis mellifera, commonly called Italian Honeybees. This teaching garden is popular with education classes.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Wedding Garden features colorful flower beds filled with blooms from March through November as well as striking fall foliage displays. Modeled as a Victorian-style garden with a gazebo, footbridge, and stream, the Wedding Garden has been a beautiful backdrop for many brides and grooms on their happy day. </t>
-  </si>
-  <si>
     <t>map_number</t>
   </si>
   <si>
@@ -308,13 +294,7 @@
     <t>Magnolia Walk</t>
   </si>
   <si>
-    <t>Deciduous Conifer Forest</t>
-  </si>
-  <si>
     <t>thumbnail_url</t>
-  </si>
-  <si>
-    <t>Farm and Compost Site</t>
   </si>
   <si>
     <t>http://queensbotanical.org/wp-content/uploads/2015/11/Annual-Garden_David-Stein-300x200.jpg</t>
@@ -1920,12 +1900,190 @@
   <si>
     <t>Red-twig dogwood</t>
   </si>
+  <si>
+    <t>place_desc</t>
+  </si>
+  <si>
+    <t>Main Street Gate</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2015/11/gop-gates-200-dpi-205x300.jpg</t>
+  </si>
+  <si>
+    <t>Seasonal Bed</t>
+  </si>
+  <si>
+    <t>Education Building</t>
+  </si>
+  <si>
+    <t>Children'sGarden</t>
+  </si>
+  <si>
+    <t>Arboretum /Crabapple Grove</t>
+  </si>
+  <si>
+    <t>Classroom Annex</t>
+  </si>
+  <si>
+    <t>NYC Compost Project Demostration Site</t>
+  </si>
+  <si>
+    <t>Parking Garden Gate</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/_Ymx9e66vrGc/R79_g0dfqTI/AAAAAAAAA2I/CxjK6r3PwsI/s1600-h/_W4T2168.jpg</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2016/01/2007JG30.402-CREDIT-Jeff-Goldberg-Esto-e1490651154911.jpg</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Gate.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2015/11/gop-gates-200-dpi.jpg</t>
+  </si>
+  <si>
+    <t>Generous support for the maintenance of the Fragrance Walk is provided by The Kaltman Family Foundation. This area has a vast collection of shrubs, perennials, and bulbs that are especially fragrant during the growing season. Essential oils found in flowers, leaves, seeds, bark, and roots give these plants their strong scent.</t>
+  </si>
+  <si>
+    <t>A central component of the Queens Botanical Garden's landscape design, the Cherry Circle and Four Seasons border are striking gardens in all seasons. Cherry trees line a curved walkway and erupt in blooms each spring.  Several trees have been adopted in honor or memory of a loved one, making this space even more special.</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2015/11/Cherry-Circle_Shari-Romar-300x200.jpg</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2015/11/Circle-Garden_CREDIT-Jess-Brey-300x201.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This path host a great amount of young Magnolia shrubs and tress.  </t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2018/03/1-2017.4.10_Magnolia-stellata-Star-Magnolia_CREDIT-Jess-Brey11-e1521561099694.jpg</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2021/01/Corp-Vols04-1-scaled.jpg</t>
+  </si>
+  <si>
+    <t>This area host vast amount of seaonal plants. Tuplis in spring and various tropical plants in the summer.</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/2011.5.30_CREDIT-Shari-Romar01.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/2017.4.17_CREDIT-Jess-Brey06.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/QueensBotanicalGardenRoseGala2017-23.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/2018.1.30_CREDIT-Jess-Brey012.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/2011.4.6_Buildings_CREDIT-H.David-Stein09.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Summer-GR-Jess-Brey.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Green-Roof-ProgressJan03.jpg</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Winter-Jess-Brey.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Summer.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/2018.6.26_CREDIT-Jess-Brey095.png</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/09/b8/a5/93/queens-botanical-garden.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wedding GA19:D20arden features colorful flower beds filled with blooms from March through November as well as striking fall foliage displays. Modeled as a Victorian-style garden with a gazebo, footbridge, and stream, the Wedding Garden has been a beautiful backdrop for many brides and grooms on their happy day. </t>
+  </si>
+  <si>
+    <t>Located in the Gardens on Parade section at QBG (an area originally modeled after the five-acre exhibit showcased at the 1939-1940 New York World’s Fair) the newly renovated zone features a new design with a circle of lawn, surrounded by six elegant 1964 World’s Fair-style benches, pathways, and a combination of plants that do well in shade and sun.</t>
+  </si>
+  <si>
+    <t>Deciduous Conifer</t>
+  </si>
+  <si>
+    <t>This area host a number of Deciduous Conifer trees.</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/02/with-labels-1024x541.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Back-of-biotope-Jess-Brey.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Fountain-STEM-Jess-Brey.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2019/01/Arbor-Fest-Jess-Brey.png</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2021/01/Corp-Vols_Compost-2048x1363.jpg</t>
+  </si>
+  <si>
+    <t>The NYC Compost Project (NYCCP) hosted by Queens Botanical Garden helps to reduce waste in NYC and rebuild City soils by giving New Yorkers the knowledge, skills, and opportunities they need to produce and use compost locally. The NYC Compost Project programs are carried out by staff funded by the New York City Council and managed by Department of Sanitation’s Bureau of Recycling and Sustainability. NYC Compost Project programs are implemented by DSNY-funded teams at seven host organizations, including Brooklyn Botanic Garden, Big Reuse, Earth Matter NY, Lower East Side Ecology Center, Queens Botanical Garden, Snug Harbor Cultural Center &amp; Botanical Garden, and The New York Botanical Garden.
+The NYC Compost Project, hosted by Queens Botanical Garden offers compost-related educational opportunities, technical composting support, distribute compost, and processes over 4,500 lbs of food waste generated in Queens, NY. We are currently working on supporting communities to open neighborhood-based public food scrap drop off sites ensuring food scraps are composted locally.</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2021/01/IMG_8774.jpg</t>
+  </si>
+  <si>
+    <t>https://queensbotanical.org/wp-content/uploads/2020/12/Compost-Volunteer-1024x768.jpg</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>media_type</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tkuaVkoFrJI</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1zsQoakeHuY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/m4w5wBjaQTg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3RLNAmEAhko</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6v40RBRTwwY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/H1vxK9O8rlU</t>
+  </si>
+  <si>
+    <t>In 2002, the installation of a new perimeter fence signaled the beginning of a decade of great change at Queens Botanical Garden, and was the first capital project completed at QBG since 1986. The Garden replaced its chain­link fence with an ornamental steel picket fence that encloses and secures the entire 39­acre site. Sixty­six stone­faced concrete piers each bear a granite plaque inscribed with the Garden’s name, and bronze medallions of plants native to the area adorn every third or fourth fence panel. A signature tree sculpture gate graces the Garden’s entrance on Main Street. This elegant representation of the American Hornbeam (Carpinus caroliniana), a tree known for its toughness and hard wood, was "planted" between two Blue Atlas Cedars (Cedrus atlantica "Glauca") that have been part of the Garden since its birth as the exhibit Gardens on Parade at the 1939­1940 New York World’s Fair. The tree sculpture gate is dedicated to "the victims and heroes of 9/11 and to the power of hope, healing, and community." The new perimeter fence has enabled QBG to develop its entire site as a botanic garden and provide a safe, secure environment for its plant collections and visitors.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1952,6 +2110,12 @@
       <color rgb="FF202124"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1973,7 +2137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1990,21 +2154,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2035,6 +2220,21 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2046,6 +2246,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04C546BF-FE3B-45E0-A87F-7F3EBCF5D2B9}" name="Table1" displayName="Table1" ref="A1:D31" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:D31" xr:uid="{95247D35-E78D-4C26-8AEF-03E64E092D1F}"/>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{5B75311F-5E2D-43FF-B382-2CFB09D83031}" name="map_number" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8E9789D3-A918-4CE1-8B81-9CB9923899BB}" name="location_name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{683C7EBD-5BCF-401E-A8FA-5AB1C0AD09BA}" name="thumbnail_url" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E0006CBE-8216-4EC7-B5D6-D617374CCB80}" name="place_desc" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA2F1D62-CAEE-4EE4-BFCC-6E6815941DAD}" name="Table2" displayName="Table2" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{52853C05-61F9-4038-B294-628132793C3C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9098469C-747E-40A0-9E35-CD77902D2CB3}" name="id"/>
+    <tableColumn id="2" xr3:uid="{2837AE72-B046-4087-9C60-B7E56472BD44}" name="location_id"/>
+    <tableColumn id="4" xr3:uid="{103047A9-54DE-4D74-9562-620584BA6EE0}" name="media_type"/>
+    <tableColumn id="3" xr3:uid="{215F7094-7227-4724-A75F-B0BBA95858CC}" name="url"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2466,366 +2692,834 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DBBB9-8D14-4BCA-A890-FF4B11EE2F7A}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" t="s">
+        <v>622</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>624</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C20" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>604</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>605</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>91</v>
       </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="85.55" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>608</v>
+      </c>
+      <c r="C29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>637</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>609</v>
+      </c>
+      <c r="C31" t="s">
         <v>86</v>
       </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D31" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C24">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26" xr:uid="{535E817F-2D2D-4F62-B5C8-85A04AF2DDF6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
-      <sortCondition ref="A1:A26"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F723E4-5A67-4C67-8B3F-B94629150D7D}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="110.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>649</v>
+      </c>
+      <c r="D9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>649</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>649</v>
+      </c>
+      <c r="D13" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>649</v>
+      </c>
+      <c r="D16" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>649</v>
+      </c>
+      <c r="D18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>649</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>649</v>
+      </c>
+      <c r="D20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>651</v>
+      </c>
+      <c r="D21" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>651</v>
+      </c>
+      <c r="D22" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>651</v>
+      </c>
+      <c r="D23" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D25" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>651</v>
+      </c>
+      <c r="D26" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1D487A-516E-4163-9DA8-C8841981AA53}">
   <dimension ref="A1:B71"/>
   <sheetViews>
@@ -2841,570 +3535,570 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3412,11 +4106,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149911F9-1C5B-4A9D-B3D9-53540215E4F5}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3430,16 +4124,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,13 +4141,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,13 +4155,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,13 +4169,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,13 +4183,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,13 +4197,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,13 +4211,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,13 +4225,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C8" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,13 +4239,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,13 +4253,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,13 +4267,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,13 +4281,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,13 +4295,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,13 +4309,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C14" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D14" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,13 +4323,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C15" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D15" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,13 +4337,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,13 +4351,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +4365,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,13 +4379,13 @@
         <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,13 +4393,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,13 +4407,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D21" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,13 +4421,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,13 +4435,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D23" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +4449,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D24" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,13 +4463,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,13 +4477,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,13 +4491,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C27" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +4505,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D28" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,13 +4519,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C29" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D29" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,13 +4533,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C30" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,13 +4547,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C31" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D31" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,13 +4561,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C32" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D32" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,13 +4575,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C33" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D33" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,13 +4589,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C34" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D34" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,13 +4603,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,13 +4617,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D36" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3937,13 +4631,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D37" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,13 +4645,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,10 +4659,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3976,13 +4670,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C40" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,13 +4684,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,13 +4698,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C42" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D42" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,13 +4712,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4032,13 +4726,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C44" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D44" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,13 +4740,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C45" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D45" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,13 +4754,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="C46" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D46" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,13 +4768,13 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D47" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4088,13 +4782,13 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C48" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D48" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,13 +4796,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C49" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,13 +4810,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,13 +4824,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4144,13 +4838,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C52" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,13 +4852,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C53" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D53" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,13 +4866,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C54" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D54" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,13 +4880,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C55" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D55" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,13 +4894,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C56" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D56" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,13 +4908,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C57" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D57" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,13 +4922,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D58" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,13 +4936,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C59" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D59" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,13 +4950,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,13 +4964,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C61" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D61" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,13 +4978,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,13 +4992,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D63" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,13 +5006,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C64" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D64" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,13 +5020,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D65" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,13 +5034,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C66" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D66" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,13 +5048,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D67" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,13 +5062,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C68" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D68" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,13 +5076,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C69" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,13 +5090,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D70" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,13 +5104,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D71" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,13 +5118,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C72" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,13 +5132,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C73" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D73" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,13 +5146,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +5160,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,13 +5174,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C76" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D76" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,13 +5188,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C77" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,13 +5202,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C78" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D78" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,13 +5216,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C79" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D79" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +5230,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C80" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D80" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +5244,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D81" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +5258,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,13 +5272,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C83" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D83" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,13 +5286,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D84" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +5300,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C85" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D85" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,13 +5314,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,13 +5328,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C87" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D87" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,13 +5342,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D88" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +5356,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C89" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,13 +5370,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C90" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D90" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,13 +5384,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C91" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D91" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,13 +5398,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D92" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,13 +5412,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C93" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D93" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,13 +5426,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C94" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,13 +5440,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,13 +5454,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C96" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D96" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4774,13 +5468,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C97" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D97" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,13 +5482,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C98" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D98" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,13 +5496,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C99" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D99" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,13 +5510,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,13 +5524,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D101" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,13 +5538,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D102" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,13 +5552,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,13 +5566,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C104" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D104" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,13 +5580,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C105" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D105" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,13 +5594,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C106" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D106" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4914,13 +5608,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C107" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D107" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,13 +5622,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C108" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D108" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,13 +5636,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,13 +5650,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C110" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D110" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,13 +5664,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C111" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D111" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,13 +5678,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C112" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D112" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,13 +5692,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C113" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D113" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,13 +5706,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C114" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D114" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,13 +5720,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C115" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D115" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,13 +5734,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="C116" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="D116" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -5059,7 +5753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94678A22-C145-4396-A3C0-A781D27713A2}">
   <dimension ref="A1:B135"/>
   <sheetViews>
@@ -5078,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5086,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5110,7 +5804,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5118,7 +5812,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5126,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5134,7 +5828,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5142,7 +5836,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5158,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5166,7 +5860,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5174,7 +5868,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5182,7 +5876,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5190,7 +5884,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5198,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5206,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5908,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5222,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5230,7 +5924,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5238,7 +5932,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5940,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5254,7 +5948,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5262,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5270,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5278,7 +5972,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5286,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5294,7 +5988,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5302,7 +5996,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5310,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,7 +6012,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5326,7 +6020,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5334,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5342,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5350,7 +6044,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5358,7 +6052,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5366,7 +6060,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5374,7 +6068,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5382,7 +6076,7 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5390,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5398,7 +6092,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5406,7 +6100,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5414,7 +6108,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5422,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5430,7 +6124,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5438,7 +6132,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5446,7 +6140,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5454,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,7 +6156,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5470,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5478,7 +6172,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -5486,7 +6180,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -5494,7 +6188,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5502,7 +6196,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5510,7 +6204,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5518,7 +6212,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5526,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5534,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5542,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5550,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5558,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5566,7 +6260,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5574,7 +6268,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5582,7 +6276,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5590,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5598,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5606,7 +6300,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5614,7 +6308,7 @@
         <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5622,7 +6316,7 @@
         <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5630,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5638,7 +6332,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5646,7 +6340,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5654,7 +6348,7 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5662,7 +6356,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5670,7 +6364,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5678,7 +6372,7 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5686,7 +6380,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5694,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5702,7 +6396,7 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5710,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5718,7 +6412,7 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5726,7 +6420,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -5734,7 +6428,7 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -5742,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -5750,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -5758,7 +6452,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -5766,7 +6460,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5774,7 +6468,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5782,7 +6476,7 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5790,7 +6484,7 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5798,7 +6492,7 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5806,7 +6500,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5814,7 +6508,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -5822,7 +6516,7 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5830,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5838,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5846,7 +6540,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5854,7 +6548,7 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5862,7 +6556,7 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -5870,7 +6564,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -5878,7 +6572,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5886,7 +6580,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5894,7 +6588,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5902,7 +6596,7 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5910,7 +6604,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5918,7 +6612,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5926,7 +6620,7 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -5934,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5942,7 +6636,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -5950,7 +6644,7 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -5958,7 +6652,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -5966,7 +6660,7 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -5974,7 +6668,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -5982,7 +6676,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -5990,7 +6684,7 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -5998,7 +6692,7 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -6006,7 +6700,7 @@
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -6014,7 +6708,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -6022,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -6030,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -6038,7 +6732,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -6046,7 +6740,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -6054,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -6062,7 +6756,7 @@
         <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -6070,7 +6764,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -6078,7 +6772,7 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -6086,7 +6780,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -6094,7 +6788,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -6102,7 +6796,7 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -6110,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -6118,7 +6812,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -6126,7 +6820,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -6134,7 +6828,7 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -6142,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -6150,7 +6844,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6158,7 +6852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6801F10C-1F4F-457B-8061-8CCFE48F8479}">
   <dimension ref="A1:B227"/>
   <sheetViews>
@@ -6174,15 +6868,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
@@ -6190,7 +6884,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -6198,7 +6892,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -6206,7 +6900,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -6214,7 +6908,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>35</v>
@@ -6222,7 +6916,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
@@ -6230,7 +6924,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>45</v>
@@ -6238,7 +6932,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
@@ -6246,7 +6940,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
@@ -6254,7 +6948,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -6262,7 +6956,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
@@ -6270,7 +6964,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -6278,7 +6972,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
@@ -6286,7 +6980,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -6294,7 +6988,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -6302,7 +6996,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -6310,7 +7004,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
@@ -6318,7 +7012,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -6326,7 +7020,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -6334,7 +7028,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>35</v>
@@ -6342,7 +7036,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
@@ -6350,7 +7044,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
@@ -6358,7 +7052,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -6366,7 +7060,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
@@ -6374,7 +7068,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -6382,7 +7076,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
@@ -6390,7 +7084,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>41</v>
@@ -6398,7 +7092,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -6406,7 +7100,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -6414,7 +7108,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
@@ -6422,7 +7116,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>35</v>
@@ -6430,7 +7124,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>40</v>
@@ -6438,7 +7132,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>17</v>
@@ -6446,7 +7140,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>42</v>
@@ -6454,7 +7148,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>38</v>
@@ -6462,7 +7156,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
@@ -6470,7 +7164,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -6478,7 +7172,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>50</v>
@@ -6486,7 +7180,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>50</v>
@@ -6494,7 +7188,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>31</v>
@@ -6508,7 +7202,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -6516,7 +7210,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
@@ -6524,7 +7218,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
@@ -6532,7 +7226,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
@@ -6540,7 +7234,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
@@ -6548,7 +7242,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>31</v>
@@ -6556,7 +7250,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>30</v>
@@ -6564,7 +7258,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>43</v>
@@ -6572,7 +7266,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
@@ -6580,7 +7274,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>39</v>
@@ -6588,7 +7282,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>41</v>
@@ -6596,7 +7290,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>30</v>
@@ -6604,7 +7298,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>30</v>
@@ -6612,7 +7306,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>14</v>
@@ -6620,7 +7314,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>17</v>
@@ -6628,7 +7322,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>24</v>
@@ -6636,7 +7330,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>31</v>
@@ -6644,7 +7338,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>15</v>
@@ -6652,7 +7346,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>29</v>
@@ -6660,7 +7354,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>45</v>
@@ -6668,7 +7362,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>39</v>
@@ -6676,7 +7370,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>35</v>
@@ -6684,7 +7378,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>31</v>
@@ -6692,7 +7386,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>31</v>
@@ -6700,7 +7394,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>16</v>
@@ -6708,7 +7402,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>35</v>
@@ -6716,7 +7410,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>25</v>
@@ -6724,7 +7418,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>23</v>
@@ -6732,7 +7426,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>26</v>
@@ -6740,7 +7434,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>49</v>
@@ -6748,7 +7442,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>38</v>
@@ -6756,7 +7450,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>41</v>
@@ -6764,7 +7458,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>32</v>
@@ -6772,7 +7466,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>25</v>
@@ -6780,7 +7474,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>17</v>
@@ -6788,7 +7482,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>41</v>
@@ -6796,7 +7490,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>16</v>
@@ -6804,7 +7498,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>17</v>
@@ -6812,7 +7506,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>17</v>
@@ -6820,7 +7514,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
@@ -6828,7 +7522,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>20</v>
@@ -6836,7 +7530,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>31</v>
@@ -6844,7 +7538,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>31</v>
@@ -6852,7 +7546,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>26</v>
@@ -6860,7 +7554,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>45</v>
@@ -6868,7 +7562,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>38</v>
@@ -6876,7 +7570,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>35</v>
@@ -6884,7 +7578,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>35</v>
@@ -6892,7 +7586,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>35</v>
@@ -6900,7 +7594,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>48</v>
@@ -6908,7 +7602,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>29</v>
@@ -6916,7 +7610,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>38</v>
@@ -6924,7 +7618,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>50</v>
@@ -6932,7 +7626,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>40</v>
@@ -6940,7 +7634,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>40</v>
@@ -6948,7 +7642,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>19</v>
@@ -6956,7 +7650,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>33</v>
@@ -6964,7 +7658,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>31</v>
@@ -6972,7 +7666,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>29</v>
@@ -6980,7 +7674,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>31</v>
@@ -6988,7 +7682,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>31</v>
@@ -6996,7 +7690,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>35</v>
@@ -7004,7 +7698,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>36</v>
@@ -7012,7 +7706,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>36</v>
@@ -7020,7 +7714,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>42</v>
@@ -7028,7 +7722,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>38</v>
@@ -7036,7 +7730,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>37</v>
@@ -7044,7 +7738,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>29</v>
@@ -7052,7 +7746,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>31</v>
@@ -7060,7 +7754,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>15</v>
@@ -7068,7 +7762,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>47</v>
@@ -7076,7 +7770,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>29</v>
@@ -7084,7 +7778,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>38</v>
@@ -7092,7 +7786,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>41</v>
@@ -7100,7 +7794,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>35</v>
@@ -7108,7 +7802,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>34</v>
@@ -7116,7 +7810,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>38</v>
@@ -7124,7 +7818,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>41</v>
@@ -7132,7 +7826,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>50</v>
@@ -7140,7 +7834,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>31</v>
@@ -7148,7 +7842,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>31</v>
@@ -7156,7 +7850,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>31</v>
@@ -7164,7 +7858,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>31</v>
@@ -7172,7 +7866,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>31</v>
@@ -7180,7 +7874,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>31</v>
@@ -7188,7 +7882,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>35</v>
@@ -7196,7 +7890,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>29</v>
@@ -7204,7 +7898,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>29</v>
@@ -7212,7 +7906,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>34</v>
@@ -7220,7 +7914,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>42</v>
@@ -7228,7 +7922,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>14</v>
@@ -7236,7 +7930,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>16</v>
@@ -7244,7 +7938,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>16</v>
@@ -7252,7 +7946,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>16</v>
@@ -7260,7 +7954,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>17</v>
@@ -7268,7 +7962,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>17</v>
@@ -7276,7 +7970,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>17</v>
@@ -7284,7 +7978,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>17</v>
@@ -7292,7 +7986,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>17</v>
@@ -7300,7 +7994,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>17</v>
@@ -7308,7 +8002,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>17</v>
@@ -7316,7 +8010,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>21</v>
@@ -7324,7 +8018,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>25</v>
@@ -7332,7 +8026,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>25</v>
@@ -7340,7 +8034,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>25</v>
@@ -7348,7 +8042,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>25</v>
@@ -7356,7 +8050,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>25</v>
@@ -7364,7 +8058,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>27</v>
@@ -7372,7 +8066,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>27</v>
@@ -7380,7 +8074,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>27</v>
@@ -7388,7 +8082,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>29</v>
@@ -7396,7 +8090,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>29</v>
@@ -7404,7 +8098,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>29</v>
@@ -7412,7 +8106,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>29</v>
@@ -7420,7 +8114,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>29</v>
@@ -7428,7 +8122,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>29</v>
@@ -7436,7 +8130,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>29</v>
@@ -7444,7 +8138,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>31</v>
@@ -7452,7 +8146,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>31</v>
@@ -7460,15 +8154,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>34</v>
@@ -7476,7 +8170,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>34</v>
@@ -7484,7 +8178,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>35</v>
@@ -7492,7 +8186,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>35</v>
@@ -7500,7 +8194,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>37</v>
@@ -7508,7 +8202,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>38</v>
@@ -7516,7 +8210,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>38</v>
@@ -7524,7 +8218,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>38</v>
@@ -7532,7 +8226,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>38</v>
@@ -7540,7 +8234,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>38</v>
@@ -7548,7 +8242,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>38</v>
@@ -7556,7 +8250,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>38</v>
@@ -7564,7 +8258,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>40</v>
@@ -7572,7 +8266,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>41</v>
@@ -7580,7 +8274,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>41</v>
@@ -7588,7 +8282,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>41</v>
@@ -7596,7 +8290,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>41</v>
@@ -7604,7 +8298,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>41</v>
@@ -7612,31 +8306,31 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>45</v>
@@ -7644,15 +8338,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>46</v>
@@ -7660,7 +8354,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>46</v>
@@ -7668,7 +8362,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>46</v>
@@ -7676,7 +8370,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>46</v>
@@ -7684,7 +8378,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>46</v>
@@ -7692,7 +8386,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>46</v>
@@ -7700,7 +8394,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>46</v>
@@ -7708,7 +8402,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>46</v>
@@ -7716,7 +8410,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>46</v>
@@ -7724,7 +8418,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>49</v>
@@ -7732,7 +8426,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>50</v>
@@ -7740,7 +8434,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>50</v>
@@ -7748,7 +8442,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>50</v>
@@ -7756,7 +8450,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>50</v>
@@ -7764,7 +8458,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>50</v>
@@ -7772,7 +8466,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>50</v>
@@ -7780,15 +8474,15 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>15</v>
@@ -7796,7 +8490,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>16</v>
@@ -7804,15 +8498,15 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>21</v>
@@ -7820,7 +8514,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>21</v>
@@ -7828,15 +8522,15 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>22</v>
@@ -7844,7 +8538,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>23</v>
@@ -7852,7 +8546,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>26</v>
@@ -7860,7 +8554,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>27</v>
@@ -7868,7 +8562,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>31</v>
@@ -7876,7 +8570,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>31</v>
@@ -7884,10 +8578,10 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -7898,7 +8592,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>34</v>
@@ -7906,7 +8600,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>35</v>
@@ -7914,7 +8608,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>38</v>
@@ -7922,7 +8616,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>38</v>
@@ -7930,7 +8624,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>40</v>
@@ -7938,31 +8632,31 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>46</v>
@@ -7970,7 +8664,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>46</v>
@@ -7978,7 +8672,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>46</v>

--- a/backend/db/QBGDigitalGuide_data.xlsx
+++ b/backend/db/QBGDigitalGuide_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\tour\backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2063BA-06EC-4C6F-AA16-E8C8819EB219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047CC9C7-FC48-4D14-A824-D179C413D3EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27260" yWindow="-114" windowWidth="27603" windowHeight="15027" activeTab="1" xr2:uid="{09D21884-479E-467C-BD18-06F6FCF93B5C}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="15027" activeTab="1" xr2:uid="{09D21884-479E-467C-BD18-06F6FCF93B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="months" sheetId="1" r:id="rId1"/>
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DBBB9-8D14-4BCA-A890-FF4B11EE2F7A}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3136,13 +3136,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" customWidth="1"/>
-    <col min="2" max="3" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="110.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
